--- a/ILRG_ORAM_P1_Redo_Parcela_Limites/ILRG_ORAM_P1_Redo_Limites-media/ILRG_ORAM_P1_redo_limites.xlsx
+++ b/ILRG_ORAM_P1_Redo_Parcela_Limites/ILRG_ORAM_P1_Redo_Limites-media/ILRG_ORAM_P1_redo_limites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_P1_Redo_Parcela_Limites\ILRG_ORAM_P1_Redo_Parcela_Limites-media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_P1_Redo_Parcela_Limites\ILRG_ORAM_P1_Redo_Limites-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0446B3B2-CAF2-498C-8CBF-3209D7B84C57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAB62D7-0559-4E06-BE20-FAE1EA225587}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1740" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="160">
   <si>
     <t>type</t>
   </si>
@@ -341,9 +341,6 @@
     <t>Diosa Alberto</t>
   </si>
   <si>
-    <t xml:space="preserve">Ericha_Jose_Elurane </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ericha Jose Elurane </t>
   </si>
   <si>
@@ -459,15 +456,80 @@
   </si>
   <si>
     <t>Date of Survey</t>
+  </si>
+  <si>
+    <t>Abasto_Abasto_Janeiro</t>
+  </si>
+  <si>
+    <t>Abasto Abasto Janeiro</t>
+  </si>
+  <si>
+    <t>Abrao_Saraiva_Namuiri</t>
+  </si>
+  <si>
+    <t>Abrao Saraiva Namuiri</t>
+  </si>
+  <si>
+    <t>Adriano_Banco</t>
+  </si>
+  <si>
+    <t>Adriano Banco</t>
+  </si>
+  <si>
+    <t>Anafuleza_Xavier</t>
+  </si>
+  <si>
+    <t>Anafuleza Xavier</t>
+  </si>
+  <si>
+    <t>Angelina_Marques_Impeia</t>
+  </si>
+  <si>
+    <t>Angelina Marques Impeia</t>
+  </si>
+  <si>
+    <t>Ericha_Jose_Elurane_</t>
+  </si>
+  <si>
+    <t>Gelacio_Muganiua_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gelacio Muganiua </t>
+  </si>
+  <si>
+    <t>Lourenco_Manuel_Eugenio</t>
+  </si>
+  <si>
+    <t>Lourenco Manuel Eugenio</t>
+  </si>
+  <si>
+    <t>Michael_Antonio_Whiulano</t>
+  </si>
+  <si>
+    <t>Michael Antonio Whiulano</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -643,246 +705,256 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="249">
+  <cellStyleXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -896,139 +968,139 @@
   </cellStyleXfs>
   <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="249">
+  <cellStyles count="259">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1268,16 +1340,26 @@
     <cellStyle name="Normal 3 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
     <cellStyle name="Normal 3 2 2 2" xfId="238" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
     <cellStyle name="Normal 3 2 2 2 2" xfId="247" xr:uid="{D9B2015E-436E-40F1-AC9D-C29FA75CDA76}"/>
+    <cellStyle name="Normal 3 2 2 2 2 2" xfId="257" xr:uid="{EEB57636-7C0D-4272-AA85-B5D1720A75F4}"/>
     <cellStyle name="Normal 3 2 2 2 3" xfId="246" xr:uid="{79FAB2E0-A937-4F0A-9AD4-1B79F8D9D439}"/>
+    <cellStyle name="Normal 3 2 2 2 3 2" xfId="256" xr:uid="{CEAAD900-EE1E-4751-BDE7-912B4DCBF78E}"/>
     <cellStyle name="Normal 3 2 2 2 4" xfId="237" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
     <cellStyle name="Normal 3 2 2 2 4 2" xfId="244" xr:uid="{27E5F357-1E8A-47B8-8C11-B6A8A6AE6057}"/>
+    <cellStyle name="Normal 3 2 2 2 4 2 2" xfId="254" xr:uid="{660493EA-2C47-468E-B7FD-B2BFC615CC19}"/>
     <cellStyle name="Normal 3 2 2 2 4 3" xfId="248" xr:uid="{07562AA7-FFD8-46A4-91EF-78E3367F9A85}"/>
+    <cellStyle name="Normal 3 2 2 2 4 3 2" xfId="258" xr:uid="{A46F87AE-FCA0-495A-8619-2D1B8E57937F}"/>
     <cellStyle name="Normal 3 2 2 2 4 4" xfId="242" xr:uid="{436E4CC5-CA43-4B99-9C38-3C68BF35903B}"/>
+    <cellStyle name="Normal 3 2 2 2 4 5" xfId="252" xr:uid="{D4051B08-2989-4985-9E8E-E85E421E5FF2}"/>
     <cellStyle name="Normal 3 2 2 2 5" xfId="243" xr:uid="{87FEA82A-CBDB-43AB-8184-4B4F2C99AE6A}"/>
+    <cellStyle name="Normal 3 2 2 2 6" xfId="253" xr:uid="{CEB6B2D6-35E7-4BE8-BC95-2618D135B27E}"/>
     <cellStyle name="Normal 3 2 2 3" xfId="245" xr:uid="{F89C1BED-365B-4AD5-A75A-2AD4AC39626A}"/>
+    <cellStyle name="Normal 3 2 2 3 2" xfId="255" xr:uid="{8DE5036D-2A31-4671-8C52-350F7222381F}"/>
     <cellStyle name="Normal 3 2 2 4" xfId="241" xr:uid="{239EF914-A730-42A1-9CD1-5C068B23F63E}"/>
+    <cellStyle name="Normal 3 2 2 5" xfId="251" xr:uid="{D0AFA58F-06BC-42AD-83A5-76C6A90AB2D3}"/>
     <cellStyle name="Normal 3 2 3" xfId="240" xr:uid="{26053C56-A151-4513-AD33-67FCEB6853E5}"/>
+    <cellStyle name="Normal 3 2 4" xfId="250" xr:uid="{BC88ED25-C302-4DB4-8557-162E43FE0D1D}"/>
     <cellStyle name="Normal 3 3" xfId="239" xr:uid="{F4459A97-794F-4B6E-A3DA-BDB2A39B401D}"/>
+    <cellStyle name="Normal 3 4" xfId="249" xr:uid="{25DDB510-F58E-415C-9BA6-5EF78CE25B9F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1620,7 +1702,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,54 +1785,54 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -1759,105 +1841,105 @@
       <c r="B5" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38" t="s">
+      <c r="L5" s="37"/>
+      <c r="M5" s="37" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
@@ -1866,155 +1948,155 @@
       <c r="B10" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="63" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45" t="s">
+      <c r="K11" s="44"/>
+      <c r="L11" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48" t="s">
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48" t="s">
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48" t="s">
+      <c r="I13" s="47"/>
+      <c r="J13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48" t="s">
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48" t="s">
+      <c r="I14" s="47"/>
+      <c r="J14" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="34" t="s">
         <v>58</v>
       </c>
       <c r="J16" s="21" t="s">
@@ -2025,56 +2107,56 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="56"/>
+      <c r="J17" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="56"/>
+      <c r="L17" s="57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58" t="s">
+      <c r="C18" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="57"/>
-      <c r="L17" s="58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="I18" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59" t="s">
+      <c r="K18" s="58"/>
+      <c r="L18" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2112,8 +2194,8 @@
       <c r="B21" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="63" t="s">
-        <v>140</v>
+      <c r="M21" s="62" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2140,10 +2222,10 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2173,396 +2255,444 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C5" s="55" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="54" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C8" s="50" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="54" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C10" s="50" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="54" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C11" s="55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="54" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C12" s="50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="54" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C13" s="50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="54" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C14" s="50" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="54" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C15" s="50" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="54" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C16" s="50" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="54" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C17" s="55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="54" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C18" s="55" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="54" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C19" s="55" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="54" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C20" s="55" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="54" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="51" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="53" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="54" t="s">
+      <c r="C22" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="56" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="53" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="54" t="s">
+      <c r="C24" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="56" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="53" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="54" t="s">
+      <c r="C25" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="56" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="53" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="54" t="s">
+      <c r="C26" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="56" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="53" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="54" t="s">
+      <c r="C27" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="56" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="53" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="54" t="s">
+      <c r="C28" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="56" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="53" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="54" t="s">
+      <c r="C29" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="56" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="53" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="54" t="s">
+      <c r="C31" s="55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="54" t="s">
+      <c r="C32" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="54" t="s">
+      <c r="C33" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="51" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="54" t="s">
+      <c r="C35" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="54" t="s">
+      <c r="C36" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="54" t="s">
+      <c r="C37" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="56" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="54" t="s">
+      <c r="C38" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="56" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="54" t="s">
+      <c r="C39" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="56" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="54" t="s">
+      <c r="C40" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="51" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="54" t="s">
+      <c r="C41" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="51" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="52" t="s">
+      <c r="C42" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="9"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
@@ -2750,7 +2880,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2777,17 +2907,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="29">
-        <v>201908131</v>
-      </c>
-      <c r="D2" s="62" t="s">
-        <v>141</v>
+        <v>201909041</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
